--- a/node_1/test_Results_Node_1.xlsx
+++ b/node_1/test_Results_Node_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAC18A-4216-4937-87C5-7C62F5035C75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB936F-46BB-4149-83D2-A0A13A9BD2CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
         <v>112.84134506883299</v>
       </c>
       <c r="D2">
-        <v>93.577777777777698</v>
+        <v>467.888888888888</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -437,7 +437,7 @@
         <v>63.516260162601597</v>
       </c>
       <c r="D3">
-        <v>164.53333333333299</v>
+        <v>822.66666666666595</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,7 +451,7 @@
         <v>64.901349948078902</v>
       </c>
       <c r="D4">
-        <v>160.75555555555499</v>
+        <v>803.77777777777703</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
         <v>148.765248437964</v>
       </c>
       <c r="D5">
-        <v>65.911111111111097</v>
+        <v>329.55555555555497</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>590.31877213695395</v>
       </c>
       <c r="D6">
-        <v>8.5333333333333297</v>
+        <v>42.6666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>55.940926381740802</v>
       </c>
       <c r="D7">
-        <v>188.68888888888799</v>
+        <v>943.444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,7 +507,7 @@
         <v>63.259109311740801</v>
       </c>
       <c r="D8">
-        <v>154.91111111111101</v>
+        <v>774.55555555555497</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>123.03149606299201</v>
       </c>
       <c r="D9">
-        <v>67.022222222222197</v>
+        <v>335.11111111111097</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
         <v>65.651260504201602</v>
       </c>
       <c r="D10">
-        <v>135.53333333333299</v>
+        <v>677.66666666666595</v>
       </c>
     </row>
   </sheetData>
